--- a/biology/Zoologie/Gnathothlibus_eras/Gnathothlibus_eras.xlsx
+++ b/biology/Zoologie/Gnathothlibus_eras/Gnathothlibus_eras.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gnathothlibus eras est une espèce de papillons de la famille des Sphingidae, sous-famille des Macroglossinae, de la tribu des Macroglossini et du genre Gnathothlibus . 
 </t>
@@ -511,10 +523,12 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Répartition
-L’espèce se rencontre dans l'Est des îles Sunda (Java), Sulawesi, les Moluques, les Philippines, la Nouvelle-Guinée, les îles Salomon, en Micronésie et dans l'Est de l'Australie[1].
+L’espèce se rencontre dans l'Est des îles Sunda (Java), Sulawesi, les Moluques, les Philippines, la Nouvelle-Guinée, les îles Salomon, en Micronésie et dans l'Est de l'Australie.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			♀ MHNT
@@ -576,11 +592,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'espèce Gnathothlibus eras a été décrite par l’entomologiste français Jean-Baptiste Alphonse Dechauffour de Boisduval, en 1832, sous le nom initial de Deilephila eras[2].
-Synonymie
-Deilephila eras Boisduval, 1832 Protonyme
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Gnathothlibus eras a été décrite par l’entomologiste français Jean-Baptiste Alphonse Dechauffour de Boisduval, en 1832, sous le nom initial de Deilephila eras.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gnathothlibus_eras</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gnathothlibus_eras</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Deilephila eras Boisduval, 1832 Protonyme
 Chaerocampa sapor Koch, 1865
 Chromis erotus cramptoni Clark, 1922
 Gnathothlibus erotoides Wallengren, 1858</t>
